--- a/excel/student-import.xlsx
+++ b/excel/student-import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\storage\sources\Web\2scool\2scool-api\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LEAT\data\src\others\2scool-api\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499CEC35-3B58-4FE1-B504-3115F5745D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84695598-EAFC-4A6F-8602-C02402048971}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="1950" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,15 +42,9 @@
     <t>Lê Anh Tuấn</t>
   </si>
   <si>
-    <t>Lớp 10A1</t>
-  </si>
-  <si>
     <t>Nguyễn Xuân Tú</t>
   </si>
   <si>
-    <t>Lớp 10A2</t>
-  </si>
-  <si>
     <t>01224578226</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t>Họ và Tên</t>
+  </si>
+  <si>
+    <t>Lớp 12A10</t>
+  </si>
+  <si>
+    <t>Lớp 12A11</t>
   </si>
 </sst>
 </file>
@@ -391,24 +391,24 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="4"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -420,7 +420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -428,30 +428,30 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>36802</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <v>36645</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
